--- a/Results/001Results_full.xlsx
+++ b/Results/001Results_full.xlsx
@@ -350,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +381,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -394,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -403,6 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -413,23 +420,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_FFS1_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_rgb_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_FFS1_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_FFS3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_FFS2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_FFS1_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_rgb_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -719,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -762,19 +769,19 @@
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>0.9304</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>0.86409999999999998</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>0.99619999999999997</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>0.91959999999999997</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>0.4526</v>
       </c>
       <c r="G2" s="6">
@@ -1303,19 +1310,19 @@
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8">
         <v>0.87680000000000002</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="8">
         <v>0.59789999999999999</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="8">
         <v>0.9929</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>0.95760000000000001</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>0.61360000000000003</v>
       </c>
       <c r="G17" s="6">
@@ -1787,19 +1794,19 @@
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="8">
         <v>0.94089999999999996</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="8">
         <v>0.71760000000000002</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="8">
         <v>0.95879999999999999</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="8">
         <v>0.97860000000000003</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="8">
         <v>0.57899999999999996</v>
       </c>
       <c r="G28" s="6">
@@ -2141,7 +2148,7 @@
         <v>75.837299999999999</v>
       </c>
       <c r="H38">
-        <f>G38/G2</f>
+        <f t="shared" ref="H38:H73" si="0">G38/G2</f>
         <v>13.134956786809152</v>
       </c>
     </row>
@@ -2149,26 +2156,26 @@
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="8">
         <v>0.98740000000000006</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="8">
         <v>0.97440000000000004</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="8">
         <v>0.95069999999999999</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="8">
         <v>0.94350000000000001</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="8">
         <v>0.40179999999999999</v>
       </c>
       <c r="G39" s="6">
         <v>111.5724</v>
       </c>
       <c r="H39">
-        <f>G39/G3</f>
+        <f t="shared" si="0"/>
         <v>19.234962503232477</v>
       </c>
     </row>
@@ -2195,7 +2202,7 @@
         <v>185.3143</v>
       </c>
       <c r="H40">
-        <f>G40/G4</f>
+        <f t="shared" si="0"/>
         <v>25.410234611745668</v>
       </c>
     </row>
@@ -2222,7 +2229,7 @@
         <v>391.76130000000001</v>
       </c>
       <c r="H41">
-        <f>G41/G5</f>
+        <f t="shared" si="0"/>
         <v>40.279796421961748</v>
       </c>
     </row>
@@ -2249,7 +2256,7 @@
         <v>599.02620000000002</v>
       </c>
       <c r="H42">
-        <f>G42/G6</f>
+        <f t="shared" si="0"/>
         <v>45.2173735818293</v>
       </c>
     </row>
@@ -2276,7 +2283,7 @@
         <v>810.43550000000005</v>
       </c>
       <c r="H43">
-        <f>G43/G7</f>
+        <f t="shared" si="0"/>
         <v>32.139987626805414</v>
       </c>
     </row>
@@ -2303,7 +2310,7 @@
         <v>63.809699999999999</v>
       </c>
       <c r="H44">
-        <f>G44/G8</f>
+        <f t="shared" si="0"/>
         <v>12.953917050691244</v>
       </c>
     </row>
@@ -2330,7 +2337,7 @@
         <v>83.106099999999998</v>
       </c>
       <c r="H45">
-        <f>G45/G9</f>
+        <f t="shared" si="0"/>
         <v>13.4432384341637</v>
       </c>
     </row>
@@ -2357,7 +2364,7 @@
         <v>174.24719999999999</v>
       </c>
       <c r="H46">
-        <f>G46/G10</f>
+        <f t="shared" si="0"/>
         <v>22.426502953781998</v>
       </c>
     </row>
@@ -2384,7 +2391,7 @@
         <v>249.3279</v>
       </c>
       <c r="H47">
-        <f>G47/G11</f>
+        <f t="shared" si="0"/>
         <v>26.129248278680794</v>
       </c>
     </row>
@@ -2411,7 +2418,7 @@
         <v>553.58460000000002</v>
       </c>
       <c r="H48">
-        <f>G48/G12</f>
+        <f t="shared" si="0"/>
         <v>36.460818020154122</v>
       </c>
     </row>
@@ -2438,7 +2445,7 @@
         <v>594.88570000000004</v>
       </c>
       <c r="H49">
-        <f>G49/G13</f>
+        <f t="shared" si="0"/>
         <v>22.91044339262951</v>
       </c>
     </row>
@@ -2446,26 +2453,26 @@
       <c r="A50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="8">
         <v>1</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="8">
         <v>1</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="8">
         <v>0.96030000000000004</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="8">
         <v>0.94430000000000003</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="8">
         <v>0.46060000000000001</v>
       </c>
       <c r="G50" s="6">
         <v>74.485399999999998</v>
       </c>
       <c r="H50">
-        <f>G50/G14</f>
+        <f t="shared" si="0"/>
         <v>13.247736771898623</v>
       </c>
     </row>
@@ -2492,7 +2499,7 @@
         <v>96.062299999999993</v>
       </c>
       <c r="H51">
-        <f>G51/G15</f>
+        <f t="shared" si="0"/>
         <v>15.477443366738632</v>
       </c>
     </row>
@@ -2519,7 +2526,7 @@
         <v>183.6217</v>
       </c>
       <c r="H52">
-        <f>G52/G16</f>
+        <f t="shared" si="0"/>
         <v>23.28185979282101</v>
       </c>
     </row>
@@ -2546,7 +2553,7 @@
         <v>322.43849999999998</v>
       </c>
       <c r="H53">
-        <f>G53/G17</f>
+        <f t="shared" si="0"/>
         <v>26.253572388187301</v>
       </c>
     </row>
@@ -2573,7 +2580,7 @@
         <v>604.88430000000005</v>
       </c>
       <c r="H54">
-        <f>G54/G18</f>
+        <f t="shared" si="0"/>
         <v>43.271546913898192</v>
       </c>
     </row>
@@ -2600,7 +2607,7 @@
         <v>820.39110000000005</v>
       </c>
       <c r="H55">
-        <f>G55/G19</f>
+        <f t="shared" si="0"/>
         <v>46.835599780776874</v>
       </c>
     </row>
@@ -2627,7 +2634,7 @@
         <v>76.333100000000002</v>
       </c>
       <c r="H56">
-        <f>G56/G20</f>
+        <f t="shared" si="0"/>
         <v>13.059331747959829</v>
       </c>
     </row>
@@ -2654,7 +2661,7 @@
         <v>143.46809999999999</v>
       </c>
       <c r="H57">
-        <f>G57/G21</f>
+        <f t="shared" si="0"/>
         <v>19.558586560876854</v>
       </c>
     </row>
@@ -2681,7 +2688,7 @@
         <v>207.15620000000001</v>
       </c>
       <c r="H58">
-        <f>G58/G22</f>
+        <f t="shared" si="0"/>
         <v>22.719477955692039</v>
       </c>
     </row>
@@ -2708,7 +2715,7 @@
         <v>399.92529999999999</v>
       </c>
       <c r="H59">
-        <f>G59/G23</f>
+        <f t="shared" si="0"/>
         <v>32.993325853449271</v>
       </c>
     </row>
@@ -2735,7 +2742,7 @@
         <v>571.87440000000004</v>
       </c>
       <c r="H60">
-        <f>G60/G24</f>
+        <f t="shared" si="0"/>
         <v>38.39912978667688</v>
       </c>
     </row>
@@ -2762,7 +2769,7 @@
         <v>972.01990000000001</v>
       </c>
       <c r="H61">
-        <f>G61/G25</f>
+        <f t="shared" si="0"/>
         <v>50.216199042192109</v>
       </c>
     </row>
@@ -2789,7 +2796,7 @@
         <v>76.628</v>
       </c>
       <c r="H62">
-        <f>G62/G26</f>
+        <f t="shared" si="0"/>
         <v>14.32058158440636</v>
       </c>
     </row>
@@ -2816,7 +2823,7 @@
         <v>92.920500000000004</v>
       </c>
       <c r="H63">
-        <f>G63/G27</f>
+        <f t="shared" si="0"/>
         <v>15.333921911614246</v>
       </c>
     </row>
@@ -2843,7 +2850,7 @@
         <v>158.29859999999999</v>
       </c>
       <c r="H64">
-        <f>G64/G28</f>
+        <f t="shared" si="0"/>
         <v>17.994611799477092</v>
       </c>
     </row>
@@ -2870,7 +2877,7 @@
         <v>325.471</v>
       </c>
       <c r="H65">
-        <f>G65/G29</f>
+        <f t="shared" si="0"/>
         <v>37.603664806534724</v>
       </c>
     </row>
@@ -2897,7 +2904,7 @@
         <v>529.83540000000005</v>
       </c>
       <c r="H66">
-        <f>G66/G30</f>
+        <f t="shared" si="0"/>
         <v>50.85134318044399</v>
       </c>
     </row>
@@ -2924,7 +2931,7 @@
         <v>492.86329999999998</v>
       </c>
       <c r="H67">
-        <f>G67/G31</f>
+        <f t="shared" si="0"/>
         <v>37.999082526367729</v>
       </c>
     </row>
@@ -2951,7 +2958,7 @@
         <v>78.016900000000007</v>
       </c>
       <c r="H68">
-        <f>G68/G32</f>
+        <f t="shared" si="0"/>
         <v>14.22809257199132</v>
       </c>
     </row>
@@ -2978,7 +2985,7 @@
         <v>122.7034</v>
       </c>
       <c r="H69">
-        <f>G69/G33</f>
+        <f t="shared" si="0"/>
         <v>19.589290845812446</v>
       </c>
     </row>
@@ -3005,7 +3012,7 @@
         <v>180.33789999999999</v>
       </c>
       <c r="H70">
-        <f>G70/G34</f>
+        <f t="shared" si="0"/>
         <v>27.081015737626139</v>
       </c>
     </row>
@@ -3032,7 +3039,7 @@
         <v>318.9819</v>
       </c>
       <c r="H71">
-        <f>G71/G35</f>
+        <f t="shared" si="0"/>
         <v>36.45882433621744</v>
       </c>
     </row>
@@ -3059,7 +3066,7 @@
         <v>435.7149</v>
       </c>
       <c r="H72">
-        <f>G72/G36</f>
+        <f t="shared" si="0"/>
         <v>39.01039465673459</v>
       </c>
     </row>
@@ -3086,7 +3093,7 @@
         <v>538.08460000000002</v>
       </c>
       <c r="H73">
-        <f>G73/G37</f>
+        <f t="shared" si="0"/>
         <v>37.660423578157591</v>
       </c>
       <c r="J73">
